--- a/Team-Data/2013-14/12-8-2013-14.xlsx
+++ b/Team-Data/2013-14/12-8-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -762,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -774,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -848,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.455</v>
+        <v>0.429</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>80.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N3" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="T3" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U3" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="V3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -944,49 +1011,49 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>15</v>
@@ -995,14 +1062,14 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB3" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC3" t="n">
         <v>22</v>
       </c>
-      <c r="BC3" t="n">
-        <v>17</v>
-      </c>
       <c r="BD3" t="n">
         <v>10</v>
       </c>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-7.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -1129,16 +1196,16 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1329,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
@@ -1341,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1350,7 +1417,7 @@
         <v>28</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1359,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1493,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1514,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1663,10 +1730,10 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1684,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1705,19 +1772,19 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
         <v>21</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1857,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1881,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT8" t="n">
         <v>25</v>
@@ -1896,13 +1963,13 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2045,7 +2112,7 @@
         <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN9" t="n">
         <v>10</v>
@@ -2075,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2084,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J10" t="n">
         <v>84.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
@@ -2152,67 +2219,67 @@
         <v>19.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.677</v>
+        <v>0.675</v>
       </c>
       <c r="R10" t="n">
         <v>14.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
         <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>11</v>
@@ -2221,16 +2288,16 @@
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
@@ -2245,37 +2312,37 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2397,10 +2464,10 @@
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
         <v>4</v>
@@ -2430,16 +2497,16 @@
         <v>6</v>
       </c>
       <c r="AT11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>11</v>
@@ -2451,7 +2518,7 @@
         <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -2486,67 +2553,67 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.477</v>
+        <v>0.479</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
         <v>22.7</v>
       </c>
       <c r="P12" t="n">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.697</v>
+        <v>0.705</v>
       </c>
       <c r="R12" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="T12" t="n">
-        <v>47.3</v>
+        <v>46.7</v>
       </c>
       <c r="U12" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V12" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X12" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
@@ -2555,19 +2622,19 @@
         <v>20.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.5</v>
+        <v>107.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2603,16 +2670,16 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>20</v>
@@ -2621,16 +2688,16 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.857</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M13" t="n">
         <v>20.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O13" t="n">
         <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.793</v>
+        <v>0.788</v>
       </c>
       <c r="R13" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>34.8</v>
       </c>
       <c r="T13" t="n">
-        <v>44.2</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA13" t="n">
         <v>22.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,16 +2825,16 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2776,13 +2843,13 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2794,19 +2861,19 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2821,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>4.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2940,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>7</v>
@@ -2985,10 +3052,10 @@
         <v>9</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -3032,100 +3099,100 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.526</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.441</v>
       </c>
       <c r="L15" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M15" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.402</v>
+        <v>0.407</v>
       </c>
       <c r="O15" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="P15" t="n">
         <v>20.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.729</v>
+        <v>0.723</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T15" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Y15" t="n">
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA15" t="n">
         <v>18.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>4</v>
@@ -3146,7 +3213,7 @@
         <v>28</v>
       </c>
       <c r="AP15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
@@ -3158,22 +3225,22 @@
         <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3182,10 +3249,10 @@
         <v>29</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>-3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
@@ -3331,13 +3398,13 @@
         <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>24</v>
@@ -3349,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX16" t="n">
         <v>26</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J17" t="n">
-        <v>75.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.508</v>
+        <v>0.506</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
         <v>0.395</v>
@@ -3432,49 +3499,49 @@
         <v>18.7</v>
       </c>
       <c r="P17" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.765</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="S17" t="n">
         <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V17" t="n">
         <v>15.9</v>
       </c>
       <c r="W17" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
         <v>2.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3489,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3695,16 +3762,16 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -3719,10 +3786,10 @@
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG19" t="n">
         <v>18</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
@@ -3874,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
@@ -3883,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>6</v>
@@ -3910,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI20" t="n">
         <v>3</v>
@@ -4044,7 +4111,7 @@
         <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
@@ -4056,10 +4123,10 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>2</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
@@ -4089,7 +4156,7 @@
         <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -4124,115 +4191,115 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.263</v>
+        <v>0.278</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36.4</v>
       </c>
       <c r="J21" t="n">
-        <v>83.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="L21" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.351</v>
       </c>
       <c r="O21" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="P21" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y21" t="n">
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA21" t="n">
         <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.8</v>
+        <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,16 +4308,16 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
       </c>
       <c r="AT21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4262,22 +4329,22 @@
         <v>11</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA21" t="n">
         <v>27</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -4306,142 +4373,142 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.789</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>37.8</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="L22" t="n">
         <v>6.2</v>
       </c>
       <c r="M22" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O22" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.819</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S22" t="n">
         <v>35.5</v>
       </c>
       <c r="T22" t="n">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="U22" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="W22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y22" t="n">
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.7</v>
+        <v>104</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK22" t="n">
         <v>11</v>
       </c>
-      <c r="AI22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>6</v>
-      </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4450,13 +4517,13 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -4488,124 +4555,124 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="H23" t="n">
         <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M23" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.36</v>
+        <v>0.366</v>
       </c>
       <c r="O23" t="n">
         <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.745</v>
+        <v>0.757</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T23" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="V23" t="n">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="W23" t="n">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.7</v>
+        <v>-4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4617,25 +4684,25 @@
         <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA23" t="n">
         <v>26</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>25</v>
       </c>
       <c r="BB23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-7.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
       </c>
       <c r="AF24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4772,13 +4839,13 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -4787,7 +4854,7 @@
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4951,7 +5018,7 @@
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4972,10 +5039,10 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4990,19 +5057,19 @@
         <v>10</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>4</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5309,7 +5376,7 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
@@ -5318,13 +5385,13 @@
         <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>14</v>
@@ -5360,7 +5427,7 @@
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>10</v>
@@ -5369,7 +5436,7 @@
         <v>20</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5500,10 +5567,10 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5533,13 +5600,13 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
         <v>17</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.427</v>
+        <v>0.424</v>
       </c>
       <c r="L29" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.328</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
         <v>25.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.778</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42.6</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="V29" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="AA29" t="n">
         <v>22.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>4</v>
@@ -5676,19 +5743,19 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
@@ -5697,13 +5764,13 @@
         <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT29" t="n">
         <v>16</v>
@@ -5712,16 +5779,16 @@
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -5858,7 +5925,7 @@
         <v>27</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
         <v>25</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5894,7 +5961,7 @@
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>19</v>
@@ -5903,7 +5970,7 @@
         <v>28</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6040,13 +6107,13 @@
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
         <v>9</v>
@@ -6070,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6094,10 +6161,10 @@
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-8-2013-14</t>
+          <t>2013-12-08</t>
         </is>
       </c>
     </row>
